--- a/labdata/R2-CO2 metadata.xlsx
+++ b/labdata/R2-CO2 metadata.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mphum\GitHub\MaMa2023\labdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/github/MaMa2023/labdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFC2ACC-6673-4ABB-B2D4-8EE2008B83AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172D9B6A-8B7B-9F43-A6D0-7A4242103873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,6 +41,15 @@
     <t>salinity</t>
   </si>
   <si>
+    <t>total_phosphate_vol</t>
+  </si>
+  <si>
+    <t>total_silicate_vol</t>
+  </si>
+  <si>
+    <t>dic_vol</t>
+  </si>
+  <si>
     <t>1.1.1</t>
   </si>
   <si>
@@ -68,22 +90,13 @@
   </si>
   <si>
     <t>2.1.1</t>
-  </si>
-  <si>
-    <t>total_phosphate_vol</t>
-  </si>
-  <si>
-    <t>total_silicate_vol</t>
-  </si>
-  <si>
-    <t>dic_vol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +108,23 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,11 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,12 +475,16 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,251 +492,251 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>31.78</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2295.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>31.87</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2283.3000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>31.52</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.323</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2438.8000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>29.11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9.17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>29.993500000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2381.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>29.993500000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D7">
+        <v>7.3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2372.1999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>30.82</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2390.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>30.874700000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D9">
+        <v>5.4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>30.825600000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.66</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2368.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>31.543700000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>31.499199999999998</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2286.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B13" s="3">
+        <v>31.0151</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2252.6999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B14" s="3">
+        <v>31.144600000000001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2240.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
       <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>2100</v>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1490.2</v>
       </c>
     </row>
   </sheetData>
